--- a/experiment result/64_0.6_40_zs30_kappa_lp.xlsx
+++ b/experiment result/64_0.6_40_zs30_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.007923754102861726</v>
+        <v>0.01107254256214673</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01531829323107096</v>
+        <v>0.001055744996473423</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03356837350035991</v>
+        <v>0.02065198267492912</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02269937348304456</v>
+        <v>0.01172766931937115</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01476563809914723</v>
+        <v>0.001751137644394319</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02082595796915216</v>
+        <v>0.006325031572834766</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02183123742862466</v>
+        <v>0.0007636914480417197</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01658086606042617</v>
+        <v>0.003115158913897182</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0127426333109603</v>
+        <v>0.001653285998994837</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01841578887025649</v>
+        <v>0.02335550948374784</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03703860292644522</v>
+        <v>0.03667673309026446</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02579773369075275</v>
+        <v>0.03022013591485082</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02082863652950381</v>
+        <v>0.001024659751735298</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02748956700818042</v>
+        <v>0.003423479472203473</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02634009393318153</v>
+        <v>0.005920117739968979</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02696789056510785</v>
+        <v>0.004789535504139097</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02003382451402369</v>
+        <v>0.008325121807899374</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.008275672048476398</v>
+        <v>0.0002481003548282641</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02032185366866523</v>
+        <v>0.007195833419629852</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02942050368860565</v>
+        <v>0.02368601621094032</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01119858285715517</v>
+        <v>0.005785837439110627</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01268210841370583</v>
+        <v>0.005427474249052312</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0332413737812723</v>
+        <v>0.01428201631910709</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01085618831745076</v>
+        <v>0.003685848349005864</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0126956492588216</v>
+        <v>0.0009363221743033895</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.03409745521952838</v>
+        <v>0.009192371562576646</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02548958114211794</v>
+        <v>0.004141322395884774</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02075046463798797</v>
+        <v>0.0469719917799589</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01706159217106807</v>
+        <v>0.01759500933545886</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0258687575228127</v>
+        <v>0.005753621988909619</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01043028589047905</v>
+        <v>0.0003819557854124062</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02094671237546295</v>
+        <v>0.001195084792842006</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.03392271903631609</v>
+        <v>0.007895497165553498</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.007209684274665047</v>
+        <v>0.0005453818389383845</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0181884344446577</v>
+        <v>0.00075099825753869</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.03054341425677252</v>
+        <v>0.001480492137243473</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.02559270657021175</v>
+        <v>0.007275552964474505</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02483016224807662</v>
+        <v>0.007436251312578107</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02808895299201328</v>
+        <v>0.00467387680027734</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.04024552610238057</v>
+        <v>0.05887682478223231</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.02308779520783778</v>
+        <v>0.002548092942338346</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01405277278313509</v>
+        <v>0.006288382185347369</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02360261501889812</v>
+        <v>0.002543768294361451</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01781936496905739</v>
+        <v>0.001504158848435345</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01274667882530228</v>
+        <v>0.001561872590859147</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02968419608294897</v>
+        <v>0.002798445493093674</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02719859077321876</v>
+        <v>0.004836064959615248</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01047761161168907</v>
+        <v>0.0007349344623913206</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.02729512162730425</v>
+        <v>0.00915767577157389</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01264524212523045</v>
+        <v>0.0005312369486233532</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01880682181262119</v>
+        <v>0.009635981920673197</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.03060275346433709</v>
+        <v>0.003388765652547585</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.005297985828243144</v>
+        <v>3.418664818078827e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.004838776971056988</v>
+        <v>0.0004038584210206039</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.02675407958384722</v>
+        <v>0.02890807446029869</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.01858594311545817</v>
+        <v>0.01080781293311086</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01593435002517209</v>
+        <v>0.001120308304175572</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.01962880777150918</v>
+        <v>0.006535007248905709</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.02444125534600148</v>
+        <v>0.01609130069698197</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.01883105751123202</v>
+        <v>0.0004692115972788237</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.006135598903522976</v>
+        <v>0.000286863382254329</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.01353265411085969</v>
+        <v>0.002412758209721257</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0155552029405624</v>
+        <v>0.006552713917217093</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01111272541839072</v>
+        <v>0.0004698505541487259</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.02593549661189369</v>
+        <v>0.01314315494895496</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.02329442122798173</v>
+        <v>0.006656548832411874</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.01766578327219431</v>
+        <v>0.000933654669490746</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.01255798307977108</v>
+        <v>0.0008127573615267656</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006019541324911671</v>
+        <v>0.0001118688522999811</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.01149834501916328</v>
+        <v>0.001789261713615874</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01850599057373189</v>
+        <v>0.005222126496217291</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.01042290635105403</v>
+        <v>0.002181749696688977</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.01999201102928064</v>
+        <v>0.003700674902163989</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.01453664601726887</v>
+        <v>0.001321587907290718</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.01806806407246075</v>
+        <v>0.04349366408193284</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.02123406859677467</v>
+        <v>0.01734006268857143</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.01226926441400197</v>
+        <v>0.0002308154462664794</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.02011111682356798</v>
+        <v>0.03201259837930796</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.01475025201228774</v>
+        <v>0.004350960938220337</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.01285156944926493</v>
+        <v>0.0004779290073901955</v>
       </c>
     </row>
   </sheetData>
